--- a/IMU and EEG/Design Verification Matrix (EEG).xlsx
+++ b/IMU and EEG/Design Verification Matrix (EEG).xlsx
@@ -249,18 +249,21 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.2"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -324,7 +327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
@@ -340,7 +343,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <f aca="false">A5+1</f>
         <v>2</v>
@@ -374,7 +377,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <f aca="false">A7+1</f>
         <v>4</v>
@@ -391,7 +394,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <f aca="false">A8+1</f>
         <v>5</v>
@@ -408,7 +411,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <f aca="false">A9+1</f>
         <v>6</v>
@@ -425,7 +428,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <f aca="false">A10+1</f>
         <v>7</v>
@@ -442,7 +445,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <f aca="false">A11+1</f>
         <v>8</v>
@@ -459,7 +462,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <f aca="false">A12+1</f>
         <v>9</v>
@@ -476,7 +479,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <f aca="false">A13+1</f>
         <v>10</v>
@@ -493,7 +496,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <f aca="false">A14+1</f>
         <v>11</v>
@@ -510,7 +513,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <f aca="false">A15+1</f>
         <v>12</v>
@@ -527,7 +530,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <f aca="false">A16+1</f>
         <v>13</v>
